--- a/BalanceSheet/CTXS_bal.xlsx
+++ b/BalanceSheet/CTXS_bal.xlsx
@@ -507,19 +507,19 @@
         <v>21210000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-3628000.0</v>
+        <v>20000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>1302000.0</v>
+        <v>16000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>50000.0</v>
+        <v>18000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-1944000.0</v>
+        <v>17000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>2603000.0</v>
+        <v>16000000.0</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>18518000.0</v>
@@ -2046,19 +2046,19 @@
         <v>117901000.0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>-10441000.0</v>
+        <v>92000000.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>-19891000.0</v>
+        <v>101000000.0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>17335000.0</v>
+        <v>122000000.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>20529000.0</v>
+        <v>105000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>11639000.0</v>
+        <v>85000000.0</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>72659000.0</v>
@@ -3566,19 +3566,19 @@
         </is>
       </c>
       <c r="C25" s="0" t="n">
-        <v>30398000.0</v>
+        <v>-387000000.0</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>-13420000.0</v>
+        <v>-395000000.0</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>-15377000.0</v>
+        <v>-382000000.0</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>-5575000.0</v>
+        <v>-367000000.0</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>-60360000.0</v>
+        <v>-362000000.0</v>
       </c>
       <c r="H25" s="0" t="inlineStr">
         <is>
